--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11840" yWindow="920" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
@@ -62,14 +62,18 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>何らかの方法でプラグインを無効にしても通信が切断されずログが表示され続けるバグ修正</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/mm/d"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/d"/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -110,20 +114,24 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -455,35 +463,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1"/>
-    <col min="2" max="2" width="12.83203125" style="6"/>
-    <col min="3" max="3" width="60.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="5"/>
+    <col min="2" max="2" width="12.83203125" style="3"/>
+    <col min="3" max="3" width="78.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>41419</v>
       </c>
       <c r="C2" t="s">
@@ -491,10 +499,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>1.01</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>41423</v>
       </c>
       <c r="C3" t="s">
@@ -502,14 +510,25 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>41424</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B5" s="6">
+        <v>41429</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
@@ -64,6 +64,22 @@
   </si>
   <si>
     <t>何らかの方法でプラグインを無効にしても通信が切断されずログが表示され続けるバグ修正</t>
+  </si>
+  <si>
+    <t>余計なログを出力しないようにして負荷を軽減した</t>
+    <rPh sb="0" eb="2">
+      <t>ヨケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -463,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -531,6 +547,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="B6" s="3">
+        <v>41435</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
@@ -79,6 +79,10 @@
     <rPh sb="19" eb="21">
       <t>ケイゲン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bukkit1.6.1-R0.1でビルド</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -479,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -551,11 +555,22 @@
       <c r="A6" s="5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>41435</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>41464</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
